--- a/matsukifudousan/files/建物賃貸借契約書.xlsx
+++ b/matsukifudousan/files/建物賃貸借契約書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fudousan\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD57C617-952D-4F24-90A6-F4D9D64C5457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18281E1-6CF7-4556-A8DF-0DEA1C34D758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="297">
   <si>
     <t>甲乙間に於いて、次の通り下記建物の賃貸借契約を締結する。</t>
   </si>
@@ -1381,6 +1381,25 @@
   </si>
   <si>
     <t xml:space="preserve">借　　主        </t>
+  </si>
+  <si>
+    <t>賃　借　人　住　所</t>
+    <rPh sb="0" eb="1">
+      <t>チン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジュウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1965,8 +1984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H343"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -4816,7 +4835,7 @@
     </row>
     <row r="305" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="12" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="B305" s="12"/>
       <c r="C305" s="12"/>
